--- a/Unity/Assets/Config/Excel/BuffConfig.xlsx
+++ b/Unity/Assets/Config/Excel/BuffConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>Id</t>
   </si>
@@ -50,6 +50,9 @@
     <t>结束效果</t>
   </si>
   <si>
+    <t>自身特效</t>
+  </si>
+  <si>
     <t>NoticeClientType</t>
   </si>
   <si>
@@ -66,6 +69,9 @@
   </si>
   <si>
     <t>RemoveAction</t>
+  </si>
+  <si>
+    <t>OwnerEffect</t>
   </si>
   <si>
     <t>int</t>
@@ -1063,15 +1069,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:I5"/>
+  <dimension ref="C3:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="21.1272727272727" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5454545454545" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.7545454545455" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.6272727272727" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.7272727272727" style="1" customWidth="1"/>
@@ -1080,10 +1086,11 @@
     <col min="7" max="7" width="16.5454545454545" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.4545454545455" style="1" customWidth="1"/>
     <col min="9" max="9" width="16.6363636363636" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="10" max="10" width="13.2727272727273" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="13.5" spans="3:9">
+    <row r="3" ht="13.5" spans="3:10">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1105,51 +1112,80 @@
       <c r="I3" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="J3" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" ht="13.5" spans="3:9">
+    <row r="4" ht="13.5" spans="3:10">
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="5" ht="13.5" spans="3:9">
+    <row r="5" ht="13.5" spans="3:10">
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10">
+      <c r="C6" s="1">
+        <v>2001</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1002</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1002</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
